--- a/Amazon project Testcase doc.xlsx
+++ b/Amazon project Testcase doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganta\Downloads\Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8C1A6E-1711-4682-BC65-562B85749D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AB9284-B219-4144-9BC8-AF9225D99762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="541" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="541" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TESTCASE TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="110">
   <si>
     <t>Category</t>
   </si>
@@ -235,66 +235,6 @@
     <t>Item order placed successfully</t>
   </si>
   <si>
-    <t>Validate the amazon application for recommendation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Browser should be launched and logged in </t>
-  </si>
-  <si>
-    <t>2.Navigate to recommendations</t>
-  </si>
-  <si>
-    <t>Relevant product recommendations displayed</t>
-  </si>
-  <si>
-    <t>Validate the amazon application for tracking Orders</t>
-  </si>
-  <si>
-    <t>Login to amazon account and place the order</t>
-  </si>
-  <si>
-    <t>2.Navigate to Order tracking</t>
-  </si>
-  <si>
-    <t>Order status and tracking details displayed</t>
-  </si>
-  <si>
-    <t>Validate the amazon application for new releases</t>
-  </si>
-  <si>
-    <t>Latest product releases displayed</t>
-  </si>
-  <si>
-    <t>2.Explore New releases</t>
-  </si>
-  <si>
-    <t>Validate the amazon application for menu</t>
-  </si>
-  <si>
-    <t>Login to amazon account</t>
-  </si>
-  <si>
-    <t>Menu options displayed</t>
-  </si>
-  <si>
-    <t>Validate the amazon application for payment options</t>
-  </si>
-  <si>
-    <t>Payment options displayed</t>
-  </si>
-  <si>
-    <t>2.Proceed to checkout payment methods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Login and checkout the items in cart </t>
-  </si>
-  <si>
-    <t>Validate the amazon application for footer links</t>
-  </si>
-  <si>
-    <t>Footer links accessible and functional</t>
-  </si>
-  <si>
     <t>1.Open browser</t>
   </si>
   <si>
@@ -392,6 +332,27 @@
   </si>
   <si>
     <t>Filtered results should match the selected criteria, and sorting should arrange products accordingly.</t>
+  </si>
+  <si>
+    <t>TC_Amazon_wishlist_001</t>
+  </si>
+  <si>
+    <t>TC_Amazon_wishlist_002</t>
+  </si>
+  <si>
+    <t>TC_Amazon_Order_001</t>
+  </si>
+  <si>
+    <t>TC_Amazon_Order_002</t>
+  </si>
+  <si>
+    <t>2.Goto Cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.Remove item </t>
+  </si>
+  <si>
+    <t>Item Removed  successfully</t>
   </si>
 </sst>
 </file>
@@ -588,8 +549,16 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -598,13 +567,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -614,20 +589,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -970,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A36" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1026,327 +987,327 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="I2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="14"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="14"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="14"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="A6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I6" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="14"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="14"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="18"/>
       <c r="E8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="14"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="15" t="s">
+      <c r="A10" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="14"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="18"/>
       <c r="E12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="22" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="15" t="s">
+      <c r="J14" s="19" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="14"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="18"/>
       <c r="E15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+        <v>71</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="14"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
+        <v>74</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
+        <v>75</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="18"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="14"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="18"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" s="15" t="s">
+      <c r="A20" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="18" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -1372,52 +1333,52 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="18"/>
       <c r="E21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="24" t="s">
+      <c r="F21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="18" t="s">
+      <c r="I21" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="18" t="s">
+      <c r="J21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="18"/>
       <c r="E22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
       <c r="K22" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
@@ -1434,34 +1395,34 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F26" s="16"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="F27" s="16"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G28" s="14"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
     </row>
     <row r="29" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D29" s="10" t="s">
         <v>9</v>
@@ -1492,11 +1453,11 @@
       <c r="F30" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="G30" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="H30" s="26" t="s">
-        <v>122</v>
+      <c r="G30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>102</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>33</v>
@@ -1515,7 +1476,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E32" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="8"/>
@@ -1523,7 +1484,7 @@
     </row>
     <row r="33" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>103</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>7</v>
@@ -1557,19 +1518,19 @@
       <c r="E34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="F34" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G34" s="17" t="s">
+      <c r="G34" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="17" t="s">
+      <c r="H34" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="I34" s="18" t="s">
+      <c r="I34" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J34" s="18" t="s">
+      <c r="J34" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1577,24 +1538,24 @@
       <c r="E35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>65</v>
+      <c r="C36" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>10</v>
@@ -1615,152 +1576,72 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E37" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="I37" s="18" t="s">
+      <c r="G37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="I37" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J37" s="18" t="s">
+      <c r="J37" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E38" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-    </row>
-    <row r="39" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="E40" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H41" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="E42" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="F38" s="24"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F40" s="3"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F42" s="3"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>10</v>
@@ -1781,70 +1662,55 @@
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E44" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F44" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F44" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="G44" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H44" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>82</v>
-      </c>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F45" s="24"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:10" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>10</v>
@@ -1865,60 +1731,97 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E48" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F48" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H48" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="G48" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J48" s="1" t="s">
+      <c r="J48" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>61</v>
-      </c>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H49" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J49" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F49" s="24"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="75">
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="G2:G5"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="G14:G17"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="F10:F13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="C20:C23"/>
     <mergeCell ref="A20:A23"/>
@@ -1935,69 +1838,18 @@
     <mergeCell ref="H14:H17"/>
     <mergeCell ref="I14:I17"/>
     <mergeCell ref="J14:J17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="G14:G17"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="F2:F5"/>
-    <mergeCell ref="G2:G5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F33" r:id="rId1" xr:uid="{2FCDD7F2-3581-42B4-A7E3-22A5742D634E}"/>
-    <hyperlink ref="F36" r:id="rId2" xr:uid="{DBD1397B-F533-4373-8F7B-D601D3243DD1}"/>
-    <hyperlink ref="F39" r:id="rId3" xr:uid="{31F64F94-D5BE-4111-AF4F-86F84C87D0BD}"/>
-    <hyperlink ref="F41" r:id="rId4" xr:uid="{A3D7BA04-5946-48E2-AB3C-94BB9EDD4322}"/>
-    <hyperlink ref="F43" r:id="rId5" xr:uid="{F2797A4F-7A80-4D2B-B570-7DA26BE57356}"/>
-    <hyperlink ref="F47" r:id="rId6" xr:uid="{ABF86317-6D53-45D9-948A-F231378148D3}"/>
-    <hyperlink ref="F20" r:id="rId7" xr:uid="{D310EA59-C8F7-4189-9B07-5D870751B10A}"/>
+    <hyperlink ref="F20" r:id="rId2" xr:uid="{D310EA59-C8F7-4189-9B07-5D870751B10A}"/>
     <hyperlink ref="F21:F22" location="'TESTDATA TABLE_1_001'!A1" display="Ref : Table-1" xr:uid="{E926C8E5-DD1C-45F1-A194-FC73D73BA8EB}"/>
-    <hyperlink ref="F29" r:id="rId8" xr:uid="{B339E9DE-AFAA-4410-B99D-7CED9C5B7128}"/>
+    <hyperlink ref="F29" r:id="rId3" xr:uid="{B339E9DE-AFAA-4410-B99D-7CED9C5B7128}"/>
+    <hyperlink ref="F43" r:id="rId4" xr:uid="{6F99B8A3-D874-49B2-8743-03F1A61D4FB8}"/>
+    <hyperlink ref="F36" r:id="rId5" xr:uid="{66587C9E-5C29-435C-9040-31B18D8D5DAB}"/>
+    <hyperlink ref="F47" r:id="rId6" xr:uid="{C566C104-2334-4755-95AC-56883697F744}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2136,7 +1988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2153,19 +2005,19 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>106</v>
+      <c r="A3" s="25" t="s">
+        <v>86</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>25</v>
@@ -2175,7 +2027,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
@@ -2184,16 +2036,16 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
+      <c r="A5" s="26"/>
       <c r="B5" s="7" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="7" t="s">
         <v>30</v>
       </c>
@@ -2248,43 +2100,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>108</v>
+      <c r="B1" s="14" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
